--- a/supermarket_sales_analysis.xlsx
+++ b/supermarket_sales_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c81b30255807054/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{837CF9CB-BF22-4ED3-B9D3-6A7449DDBCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{837CF9CB-BF22-4ED3-B9D3-6A7449DDBCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A94261-7F58-4590-9513-3E760CEDD4E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{40D277F7-050E-4D17-BABF-4A8DD3BAA64F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{40D277F7-050E-4D17-BABF-4A8DD3BAA64F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_supermarket_salesSheet1.csv.xlsxTable11" hidden="1">Table1[]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId8"/>
-    <pivotCache cacheId="23" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -36,6 +36,17 @@
           <x15:modelTable id="Table1" name="Table1" connection="WorksheetConnection_supermarket_sales - Sheet1.csv.xlsx!Table1"/>
         </x15:modelTables>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3204,7 +3215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -3683,7 +3694,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3691,8 +3702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3738,39 +3748,54 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -4604,7 +4629,7 @@
             <c:numRef>
               <c:f>Pivot_Tables!$E$4:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>335.09565868263479</c:v>
@@ -4692,7 +4717,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6651,7 +6676,7 @@
             <c:numRef>
               <c:f>Pivot_Tables!$E$4:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>335.09565868263479</c:v>
@@ -6739,21 +6764,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6796,37 +6807,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6874,7 +6854,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -31658,144 +31637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D766F36-4D1B-4CDD-B35E-F7B89700E420}" name="PivotTable4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="J3:K7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total" fld="1" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="21">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="11"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_supermarket_sales - Sheet1.csv.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61DB2360-46CD-4B06-9914-E62C2C3778A5}" name="PivotTable8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61DB2360-46CD-4B06-9914-E62C2C3778A5}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="G3:H10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -31865,10 +31707,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Total" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -31976,8 +31818,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA7B3A56-B6C0-4C5B-B98F-0F209792DE9E}" name="PivotTable6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FA7B3A56-B6C0-4C5B-B98F-0F209792DE9E}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -32022,10 +31864,19 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Total" fld="9" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of Total" fld="9" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="2">
+  <formats count="2">
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -32061,8 +31912,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A12AA755-2E69-457F-8D2D-FCCBE9C9B5F3}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A12AA755-2E69-457F-8D2D-FCCBE9C9B5F3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -32111,10 +31962,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Total" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -32150,6 +32001,143 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D766F36-4D1B-4CDD-B35E-F7B89700E420}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="J3:K7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="21">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="11"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_supermarket_sales - Sheet1.csv.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4930197F-CC1B-4185-ADBA-F11C50B2EF73}" name="Table1" displayName="Table1" ref="A1:R1001" totalsRowShown="0">
   <autoFilter ref="A1:R1001" xr:uid="{4930197F-CC1B-4185-ADBA-F11C50B2EF73}"/>
@@ -32164,11 +32152,11 @@
     <tableColumn id="8" xr3:uid="{D8061ADB-73AA-4900-8EC1-848B959AA78A}" name="Quantity"/>
     <tableColumn id="9" xr3:uid="{5F835FF2-6CF8-424E-A4EF-F42E5D1EBD49}" name="Tax 5%"/>
     <tableColumn id="10" xr3:uid="{BA5E02F1-BB9F-4884-A3CE-C43C4523EED4}" name="Total"/>
-    <tableColumn id="11" xr3:uid="{9DB77F30-782D-45F5-A5A5-E1001BB25DB2}" name="Date" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{D6273A37-57C4-45BF-9DE9-038261C89F98}" name="Month" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{9DB77F30-782D-45F5-A5A5-E1001BB25DB2}" name="Date" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{D6273A37-57C4-45BF-9DE9-038261C89F98}" name="Month" dataDxfId="15">
       <calculatedColumnFormula>TEXT(K2, "mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2FD96922-3A59-45C2-803E-6E6A776037A7}" name="Time" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{2FD96922-3A59-45C2-803E-6E6A776037A7}" name="Time" dataDxfId="14"/>
     <tableColumn id="13" xr3:uid="{F1D4379E-1095-4448-A72D-D70D37F2911A}" name="Payment"/>
     <tableColumn id="14" xr3:uid="{1C082DB8-872D-4C5A-9F21-35D6CE5E1895}" name="cogs"/>
     <tableColumn id="15" xr3:uid="{5C3746E4-BCCF-4261-86CC-56640E0159DD}" name="gross margin percentage"/>
@@ -87329,7 +87317,7 @@
         <v>43542</v>
       </c>
       <c r="L962" s="1" t="str">
-        <f t="shared" ref="L962:L1025" si="15">TEXT(K962, "mmmm")</f>
+        <f t="shared" ref="L962:L1001" si="15">TEXT(K962, "mmmm")</f>
         <v>March</v>
       </c>
       <c r="M962" s="2">
@@ -89587,7 +89575,7 @@
   <dimension ref="A3:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89637,7 +89625,7 @@
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>335.09565868263479</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -89663,7 +89651,7 @@
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>310.78922645290606</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -89689,7 +89677,7 @@
       <c r="D6" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>322.96674899999971</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -89758,7 +89746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1AC97A-DABA-48C1-823D-FEE66986AC52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -89792,8 +89780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082BCFB-1D1A-4FE4-8F7B-AF976E4803C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
